--- a/InputData/bldgs/PCFURfE/Perc Components Fuel Use Reduction for Electricity.xlsx
+++ b/InputData/bldgs/PCFURfE/Perc Components Fuel Use Reduction for Electricity.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/nj/bldgs/pcfurfe/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/bldgs/pcfurfe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E11AF3-7F39-CE44-8A10-1499212E5313}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9265518-8980-EF4D-A7C7-2F944EE68A55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9120" yWindow="1340" windowWidth="18400" windowHeight="14920" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9120" yWindow="1420" windowWidth="18400" windowHeight="14920" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1319,6 +1319,7 @@
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1329,6 +1330,7 @@
     <font>
       <sz val="9"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
